--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_FRAs.xlsx
@@ -20,9 +20,6 @@
     <sheet name="6M (2)" sheetId="31" r:id="rId11"/>
     <sheet name="1Y (2)" sheetId="32" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>Currency</t>
   </si>
@@ -140,6 +137,9 @@
   <si>
     <t>Sonia</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +151,7 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="General_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -805,22 +805,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1115,7 +1099,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="9" customWidth="1"/>
@@ -1126,13 +1110,13 @@
     <col min="7" max="16384" width="8" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="81" t="s">
         <v>3</v>
@@ -1141,14 +1125,14 @@
       <c r="D2" s="82"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="17"/>
       <c r="C4" s="27" t="s">
@@ -1157,7 +1141,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="17"/>
       <c r="C5" s="27" t="s">
@@ -1168,7 +1152,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="17"/>
       <c r="C6" s="27" t="s">
@@ -1179,7 +1163,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="17"/>
       <c r="C7" s="27" t="s">
@@ -1190,19 +1174,18 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="17"/>
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="27" t="s">
@@ -1213,15 +1196,15 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="81" t="s">
         <v>13</v>
       </c>
@@ -1232,13 +1215,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="31" t="s">
         <v>0</v>
@@ -1251,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="31" t="s">
         <v>14</v>
@@ -1261,7 +1244,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="31" t="s">
         <v>9</v>
@@ -1271,7 +1254,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1306,7 +1289,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -1321,7 +1304,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1343,7 +1326,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1358,17 +1341,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC3M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -1402,7 +1385,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -1436,7 +1419,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="str">
         <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
@@ -1471,7 +1454,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="str">
         <f t="shared" si="3"/>
@@ -1506,7 +1489,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="str">
         <f t="shared" si="3"/>
@@ -1541,7 +1524,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -1576,7 +1559,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -1611,7 +1594,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="53" t="str">
         <f t="shared" si="3"/>
@@ -1646,7 +1629,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1">
+    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1658,7 +1641,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="H13" s="36"/>
@@ -1680,7 +1663,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
@@ -1695,7 +1678,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -1718,7 +1701,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="72"/>
       <c r="C2" s="59"/>
@@ -1736,17 +1719,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC6M-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -1783,7 +1766,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -1820,7 +1803,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="57" t="str">
         <f t="shared" ref="B5:B22" si="3">C5&amp;"M"</f>
@@ -1858,7 +1841,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="47" t="str">
         <f t="shared" si="3"/>
@@ -1896,7 +1879,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="47" t="str">
         <f t="shared" si="3"/>
@@ -1934,7 +1917,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="57" t="str">
         <f t="shared" si="3"/>
@@ -1972,7 +1955,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2010,7 +1993,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2048,7 +2031,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="57" t="str">
         <f t="shared" si="3"/>
@@ -2086,7 +2069,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2124,7 +2107,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2162,7 +2145,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2200,7 +2183,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2238,7 +2221,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2276,7 +2259,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="str">
         <f t="shared" si="3"/>
@@ -2314,7 +2297,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2352,7 +2335,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2390,7 +2373,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2428,7 +2411,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2466,7 +2449,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2504,7 +2487,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1">
+    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2517,7 +2500,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -2540,7 +2523,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
@@ -2555,7 +2538,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -2578,7 +2561,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="72"/>
       <c r="C2" s="59"/>
@@ -2596,17 +2579,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC1Y-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="57" t="s">
         <v>17</v>
@@ -2643,7 +2626,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="48" t="s">
         <v>18</v>
@@ -2680,7 +2663,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="47" t="str">
         <f t="shared" ref="B5:B49" si="3">C5&amp;"M"</f>
@@ -2718,7 +2701,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2756,7 +2739,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2794,7 +2777,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2832,7 +2815,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2870,7 +2853,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2908,7 +2891,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2946,7 +2929,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="47" t="str">
         <f t="shared" si="3"/>
@@ -2984,7 +2967,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3022,7 +3005,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3060,7 +3043,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3098,7 +3081,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -3136,7 +3119,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="str">
         <f t="shared" si="3"/>
@@ -3174,7 +3157,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3212,7 +3195,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3250,7 +3233,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3288,7 +3271,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3326,7 +3309,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3364,7 +3347,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3402,7 +3385,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3440,7 +3423,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3478,7 +3461,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3516,7 +3499,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="48" t="str">
         <f t="shared" si="3"/>
@@ -3554,7 +3537,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="57" t="str">
         <f t="shared" si="3"/>
@@ -3592,7 +3575,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3630,7 +3613,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3668,7 +3651,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3706,7 +3689,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3744,7 +3727,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3782,7 +3765,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3820,7 +3803,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3858,7 +3841,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3896,7 +3879,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3934,7 +3917,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="48" t="str">
         <f t="shared" si="3"/>
@@ -3972,7 +3955,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4010,7 +3993,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4048,7 +4031,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4086,7 +4069,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4124,7 +4107,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4162,7 +4145,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4200,7 +4183,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4238,7 +4221,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4276,7 +4259,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4314,7 +4297,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4352,7 +4335,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4390,7 +4373,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="12" thickBot="1">
+    <row r="50" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4403,7 +4386,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -4426,7 +4409,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4441,7 +4424,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4457,7 +4440,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4472,17 +4455,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>18</v>
@@ -4514,7 +4497,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>20</v>
@@ -4546,7 +4529,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4558,7 +4541,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4580,7 +4563,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4595,7 +4578,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4609,7 +4592,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4624,17 +4607,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YCRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>18</v>
@@ -4666,7 +4649,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>20</v>
@@ -4698,7 +4681,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4710,7 +4693,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4732,7 +4715,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4747,7 +4730,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4763,7 +4746,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4778,17 +4761,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>18</v>
@@ -4820,7 +4803,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>20</v>
@@ -4852,7 +4835,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4864,7 +4847,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4886,7 +4869,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4901,7 +4884,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4920,7 +4903,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4935,17 +4918,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC1MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -4979,7 +4962,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -5013,7 +4996,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5025,7 +5008,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -5047,7 +5030,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -5062,7 +5045,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5081,7 +5064,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5096,17 +5079,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC3MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -5140,7 +5123,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -5174,7 +5157,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="str">
         <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
@@ -5209,7 +5192,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5244,7 +5227,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5279,7 +5262,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5314,7 +5297,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5349,7 +5332,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="53" t="str">
         <f t="shared" si="3"/>
@@ -5384,7 +5367,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1">
+    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5396,7 +5379,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="H13" s="36"/>
@@ -5418,7 +5401,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
@@ -5433,7 +5416,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -5453,7 +5436,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="72"/>
       <c r="C2" s="59"/>
@@ -5471,17 +5454,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -5518,7 +5501,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -5555,7 +5538,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="57" t="str">
         <f>C5&amp;"M"</f>
@@ -5593,7 +5576,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="47" t="str">
         <f t="shared" ref="B6:B22" si="4">C6&amp;"M"</f>
@@ -5631,7 +5614,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="47" t="str">
         <f t="shared" si="4"/>
@@ -5669,7 +5652,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="57" t="str">
         <f t="shared" si="4"/>
@@ -5707,7 +5690,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="48" t="str">
         <f t="shared" si="4"/>
@@ -5745,7 +5728,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="42" t="str">
         <f t="shared" si="4"/>
@@ -5783,7 +5766,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="57" t="str">
         <f t="shared" si="4"/>
@@ -5821,7 +5804,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="47" t="str">
         <f t="shared" si="4"/>
@@ -5859,7 +5842,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="42" t="str">
         <f t="shared" si="4"/>
@@ -5897,7 +5880,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="47" t="str">
         <f t="shared" si="4"/>
@@ -5935,7 +5918,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="48" t="str">
         <f t="shared" si="4"/>
@@ -5973,7 +5956,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="4"/>
@@ -6011,7 +5994,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="str">
         <f t="shared" si="4"/>
@@ -6049,7 +6032,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="47" t="str">
         <f t="shared" si="4"/>
@@ -6087,7 +6070,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="47" t="str">
         <f t="shared" si="4"/>
@@ -6125,7 +6108,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="47" t="str">
         <f t="shared" si="4"/>
@@ -6163,7 +6146,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="48" t="str">
         <f t="shared" si="4"/>
@@ -6201,7 +6184,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="48" t="str">
         <f t="shared" si="4"/>
@@ -6239,7 +6222,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1">
+    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6252,7 +6235,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -6275,7 +6258,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
@@ -6290,7 +6273,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -6310,7 +6293,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="72"/>
       <c r="C2" s="59"/>
@@ -6328,17 +6311,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="57" t="s">
         <v>17</v>
@@ -6375,7 +6358,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="48" t="s">
         <v>18</v>
@@ -6412,7 +6395,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="47" t="str">
         <f t="shared" ref="B5:B49" si="3">C5&amp;"M"</f>
@@ -6450,7 +6433,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6488,7 +6471,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6526,7 +6509,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6564,7 +6547,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6602,7 +6585,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6640,7 +6623,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6678,7 +6661,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6716,7 +6699,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6754,7 +6737,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6792,7 +6775,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6830,7 +6813,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6868,7 +6851,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="str">
         <f t="shared" si="3"/>
@@ -6906,7 +6889,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6944,7 +6927,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="47" t="str">
         <f t="shared" si="3"/>
@@ -6982,7 +6965,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7020,7 +7003,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7058,7 +7041,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7096,7 +7079,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7134,7 +7117,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7172,7 +7155,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7210,7 +7193,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7248,7 +7231,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="48" t="str">
         <f t="shared" si="3"/>
@@ -7286,7 +7269,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="57" t="str">
         <f t="shared" si="3"/>
@@ -7324,7 +7307,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7362,7 +7345,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7400,7 +7383,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7438,7 +7421,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7476,7 +7459,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7514,7 +7497,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7552,7 +7535,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7590,7 +7573,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7628,7 +7611,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7666,7 +7649,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="48" t="str">
         <f t="shared" si="3"/>
@@ -7704,7 +7687,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7742,7 +7725,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7780,7 +7763,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7818,7 +7801,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7856,7 +7839,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7894,7 +7877,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7932,7 +7915,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7970,7 +7953,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="47" t="str">
         <f t="shared" si="3"/>
@@ -8008,7 +7991,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="47" t="str">
         <f t="shared" si="3"/>
@@ -8046,7 +8029,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="47" t="str">
         <f t="shared" si="3"/>
@@ -8084,7 +8067,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="48" t="str">
         <f t="shared" si="3"/>
@@ -8122,7 +8105,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="12" thickBot="1">
+    <row r="50" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -8135,7 +8118,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -8158,7 +8141,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -8173,7 +8156,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8195,7 +8178,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -8210,17 +8193,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>GBP_YC1M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="44" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55" t="s">
         <v>17</v>
@@ -8254,7 +8237,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="53" t="s">
         <v>18</v>
@@ -8288,7 +8271,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8300,7 +8283,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_FRAs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Currency</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Sonia</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1177,9 @@
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>29</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1342,12 +1340,12 @@
         <v>GBP_YC3M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1720,12 +1718,12 @@
         <v>GBP_YC6M-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="60" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="60" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2580,12 +2578,12 @@
         <v>GBP_YC1Y-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="60" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="60" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -4456,12 +4454,12 @@
         <v>GBP_YCSTDRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4608,12 +4606,12 @@
         <v>GBP_YCRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4762,12 +4760,12 @@
         <v>GBP_YCONRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4919,12 +4917,12 @@
         <v>GBP_YC1MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5080,12 +5078,12 @@
         <v>GBP_YC3MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5455,12 +5453,12 @@
         <v>GBP_YC6MRH_FRAs.xml</v>
       </c>
       <c r="I2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="60" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="60" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6312,12 +6310,12 @@
         <v>GBP_YC1YRH_FRAs.xml</v>
       </c>
       <c r="I2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="60" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="60" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -8194,12 +8192,12 @@
         <v>GBP_YC1M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="44" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="44" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
